--- a/18/Before_Soc_EEH2.xlsx
+++ b/18/Before_Soc_EEH2.xlsx
@@ -17,12 +17,45 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="25">
+  <si>
+    <t>0</t>
+  </si>
   <si>
     <t>ГЗ</t>
   </si>
   <si>
     <t>ГЗ_end</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>10</t>
   </si>
   <si>
     <t>Contr_end</t>
@@ -434,148 +467,151 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:48">
-      <c r="C1" s="1" t="n">
+      <c r="B1" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" t="s">
+        <v>4</v>
+      </c>
+      <c r="J1" t="s">
+        <v>5</v>
+      </c>
+      <c r="K1" t="s">
+        <v>5</v>
+      </c>
+      <c r="L1" t="s">
+        <v>6</v>
+      </c>
+      <c r="M1" t="s">
+        <v>6</v>
+      </c>
+      <c r="N1" t="s">
+        <v>7</v>
+      </c>
+      <c r="O1" t="s">
+        <v>7</v>
+      </c>
+      <c r="P1" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>8</v>
+      </c>
+      <c r="R1" t="s">
+        <v>9</v>
+      </c>
+      <c r="S1" t="s">
+        <v>9</v>
+      </c>
+      <c r="T1" t="s">
+        <v>10</v>
+      </c>
+      <c r="U1" t="s">
+        <v>10</v>
+      </c>
+      <c r="V1" t="s">
+        <v>11</v>
+      </c>
+      <c r="W1" t="s">
+        <v>11</v>
+      </c>
+      <c r="X1" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>4</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>4</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>6</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>6</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>8</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>8</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>11</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>11</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>12</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>12</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>13</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>14</v>
+      </c>
+      <c r="AU1" t="s">
         <v>1</v>
       </c>
-      <c r="F1" t="n">
-        <v>1</v>
-      </c>
-      <c r="G1" t="n">
-        <v>1</v>
-      </c>
-      <c r="H1" t="n">
+      <c r="AV1" t="s">
         <v>2</v>
-      </c>
-      <c r="I1" t="n">
-        <v>2</v>
-      </c>
-      <c r="J1" t="n">
-        <v>3</v>
-      </c>
-      <c r="K1" t="n">
-        <v>3</v>
-      </c>
-      <c r="L1" t="n">
-        <v>4</v>
-      </c>
-      <c r="M1" t="n">
-        <v>4</v>
-      </c>
-      <c r="N1" t="n">
-        <v>5</v>
-      </c>
-      <c r="O1" t="n">
-        <v>5</v>
-      </c>
-      <c r="P1" t="n">
-        <v>6</v>
-      </c>
-      <c r="Q1" t="n">
-        <v>6</v>
-      </c>
-      <c r="R1" t="n">
-        <v>7</v>
-      </c>
-      <c r="S1" t="n">
-        <v>7</v>
-      </c>
-      <c r="T1" t="n">
-        <v>8</v>
-      </c>
-      <c r="U1" t="n">
-        <v>8</v>
-      </c>
-      <c r="V1" t="n">
-        <v>9</v>
-      </c>
-      <c r="W1" t="n">
-        <v>9</v>
-      </c>
-      <c r="X1" t="n">
-        <v>10</v>
-      </c>
-      <c r="Y1" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z1" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA1" t="n">
-        <v>2</v>
-      </c>
-      <c r="AB1" t="n">
-        <v>2</v>
-      </c>
-      <c r="AC1" t="n">
-        <v>3</v>
-      </c>
-      <c r="AD1" t="n">
-        <v>3</v>
-      </c>
-      <c r="AE1" t="n">
-        <v>4</v>
-      </c>
-      <c r="AF1" t="n">
-        <v>4</v>
-      </c>
-      <c r="AG1" t="n">
-        <v>5</v>
-      </c>
-      <c r="AH1" t="n">
-        <v>5</v>
-      </c>
-      <c r="AI1" t="n">
-        <v>6</v>
-      </c>
-      <c r="AJ1" t="n">
-        <v>6</v>
-      </c>
-      <c r="AK1" t="n">
-        <v>7</v>
-      </c>
-      <c r="AL1" t="n">
-        <v>7</v>
-      </c>
-      <c r="AM1" t="n">
-        <v>8</v>
-      </c>
-      <c r="AN1" t="n">
-        <v>8</v>
-      </c>
-      <c r="AO1" t="n">
-        <v>9</v>
-      </c>
-      <c r="AP1" t="n">
-        <v>9</v>
-      </c>
-      <c r="AQ1" t="n">
-        <v>10</v>
-      </c>
-      <c r="AR1" t="n">
-        <v>10</v>
-      </c>
-      <c r="AS1" t="s">
-        <v>2</v>
-      </c>
-      <c r="AT1" t="s">
-        <v>3</v>
-      </c>
-      <c r="AU1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AV1" t="s">
-        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:48">
       <c r="B2" s="1" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="C2" t="n">
         <v>0.08758574032673662</v>
@@ -718,7 +754,7 @@
     </row>
     <row r="3" spans="1:48">
       <c r="B3" s="1" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="C3" t="n">
         <v>0.1302879475543951</v>
@@ -861,7 +897,7 @@
     </row>
     <row r="4" spans="1:48">
       <c r="B4" s="1" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="C4" t="n">
         <v>0.05077115704361151</v>
@@ -1004,7 +1040,7 @@
     </row>
     <row r="5" spans="1:48">
       <c r="B5" s="1" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="C5" t="n">
         <v>0.1301558667932205</v>
@@ -1147,7 +1183,7 @@
     </row>
     <row r="6" spans="1:48">
       <c r="B6" s="1" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="C6" t="n">
         <v>0.08085296748835955</v>
@@ -1290,7 +1326,7 @@
     </row>
     <row r="7" spans="1:48">
       <c r="B7" s="1" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="C7" t="n">
         <v>0.08953684761642158</v>
@@ -1433,7 +1469,7 @@
     </row>
     <row r="8" spans="1:48">
       <c r="B8" s="1" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="C8" t="n">
         <v>0.06052877040352279</v>
@@ -1507,7 +1543,7 @@
     </row>
     <row r="9" spans="1:48">
       <c r="B9" s="1" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="C9" t="n">
         <v>0.09148128706055837</v>
@@ -1650,7 +1686,7 @@
     </row>
     <row r="10" spans="1:48">
       <c r="B10" s="1" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="C10" t="n">
         <v>0.08828754725956034</v>
@@ -1793,7 +1829,7 @@
     </row>
     <row r="11" spans="1:48">
       <c r="B11" s="1" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="C11" t="n">
         <v>0.1040729194371788</v>
@@ -1954,148 +1990,151 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:48">
-      <c r="C1" s="1" t="n">
+      <c r="B1" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" t="s">
+        <v>4</v>
+      </c>
+      <c r="J1" t="s">
+        <v>5</v>
+      </c>
+      <c r="K1" t="s">
+        <v>5</v>
+      </c>
+      <c r="L1" t="s">
+        <v>6</v>
+      </c>
+      <c r="M1" t="s">
+        <v>6</v>
+      </c>
+      <c r="N1" t="s">
+        <v>7</v>
+      </c>
+      <c r="O1" t="s">
+        <v>7</v>
+      </c>
+      <c r="P1" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>8</v>
+      </c>
+      <c r="R1" t="s">
+        <v>9</v>
+      </c>
+      <c r="S1" t="s">
+        <v>9</v>
+      </c>
+      <c r="T1" t="s">
+        <v>10</v>
+      </c>
+      <c r="U1" t="s">
+        <v>10</v>
+      </c>
+      <c r="V1" t="s">
+        <v>11</v>
+      </c>
+      <c r="W1" t="s">
+        <v>11</v>
+      </c>
+      <c r="X1" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>4</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>4</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>6</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>6</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>8</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>8</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>11</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>11</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>12</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>12</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>13</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>14</v>
+      </c>
+      <c r="AU1" t="s">
         <v>1</v>
       </c>
-      <c r="F1" t="n">
-        <v>1</v>
-      </c>
-      <c r="G1" t="n">
-        <v>1</v>
-      </c>
-      <c r="H1" t="n">
+      <c r="AV1" t="s">
         <v>2</v>
-      </c>
-      <c r="I1" t="n">
-        <v>2</v>
-      </c>
-      <c r="J1" t="n">
-        <v>3</v>
-      </c>
-      <c r="K1" t="n">
-        <v>3</v>
-      </c>
-      <c r="L1" t="n">
-        <v>4</v>
-      </c>
-      <c r="M1" t="n">
-        <v>4</v>
-      </c>
-      <c r="N1" t="n">
-        <v>5</v>
-      </c>
-      <c r="O1" t="n">
-        <v>5</v>
-      </c>
-      <c r="P1" t="n">
-        <v>6</v>
-      </c>
-      <c r="Q1" t="n">
-        <v>6</v>
-      </c>
-      <c r="R1" t="n">
-        <v>7</v>
-      </c>
-      <c r="S1" t="n">
-        <v>7</v>
-      </c>
-      <c r="T1" t="n">
-        <v>8</v>
-      </c>
-      <c r="U1" t="n">
-        <v>8</v>
-      </c>
-      <c r="V1" t="n">
-        <v>9</v>
-      </c>
-      <c r="W1" t="n">
-        <v>9</v>
-      </c>
-      <c r="X1" t="n">
-        <v>10</v>
-      </c>
-      <c r="Y1" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z1" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA1" t="n">
-        <v>2</v>
-      </c>
-      <c r="AB1" t="n">
-        <v>2</v>
-      </c>
-      <c r="AC1" t="n">
-        <v>3</v>
-      </c>
-      <c r="AD1" t="n">
-        <v>3</v>
-      </c>
-      <c r="AE1" t="n">
-        <v>4</v>
-      </c>
-      <c r="AF1" t="n">
-        <v>4</v>
-      </c>
-      <c r="AG1" t="n">
-        <v>5</v>
-      </c>
-      <c r="AH1" t="n">
-        <v>5</v>
-      </c>
-      <c r="AI1" t="n">
-        <v>6</v>
-      </c>
-      <c r="AJ1" t="n">
-        <v>6</v>
-      </c>
-      <c r="AK1" t="n">
-        <v>7</v>
-      </c>
-      <c r="AL1" t="n">
-        <v>7</v>
-      </c>
-      <c r="AM1" t="n">
-        <v>8</v>
-      </c>
-      <c r="AN1" t="n">
-        <v>8</v>
-      </c>
-      <c r="AO1" t="n">
-        <v>9</v>
-      </c>
-      <c r="AP1" t="n">
-        <v>9</v>
-      </c>
-      <c r="AQ1" t="n">
-        <v>10</v>
-      </c>
-      <c r="AR1" t="n">
-        <v>10</v>
-      </c>
-      <c r="AS1" t="s">
-        <v>2</v>
-      </c>
-      <c r="AT1" t="s">
-        <v>3</v>
-      </c>
-      <c r="AU1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AV1" t="s">
-        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:48">
       <c r="B2" s="1" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="C2" t="n">
         <v>10.03861823180913</v>
@@ -2238,7 +2277,7 @@
     </row>
     <row r="3" spans="1:48">
       <c r="B3" s="1" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="C3" t="n">
         <v>10.20974159908844</v>
@@ -2381,7 +2420,7 @@
     </row>
     <row r="4" spans="1:48">
       <c r="B4" s="1" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="C4" t="n">
         <v>10.29155743298502</v>
@@ -2524,7 +2563,7 @@
     </row>
     <row r="5" spans="1:48">
       <c r="B5" s="1" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="C5" t="n">
         <v>10.07999293984273</v>
@@ -2667,7 +2706,7 @@
     </row>
     <row r="6" spans="1:48">
       <c r="B6" s="1" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="C6" t="n">
         <v>10.34668106444999</v>
@@ -2810,7 +2849,7 @@
     </row>
     <row r="7" spans="1:48">
       <c r="B7" s="1" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="C7" t="n">
         <v>10.2343614787427</v>
@@ -2953,7 +2992,7 @@
     </row>
     <row r="8" spans="1:48">
       <c r="B8" s="1" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="C8" t="n">
         <v>10.35566774286138</v>
@@ -3027,7 +3066,7 @@
     </row>
     <row r="9" spans="1:48">
       <c r="B9" s="1" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="C9" t="n">
         <v>10.25123363967715</v>
@@ -3170,7 +3209,7 @@
     </row>
     <row r="10" spans="1:48">
       <c r="B10" s="1" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="C10" t="n">
         <v>10.16004820039592</v>
@@ -3313,7 +3352,7 @@
     </row>
     <row r="11" spans="1:48">
       <c r="B11" s="1" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="C11" t="n">
         <v>10.18843795118234</v>
@@ -3474,420 +3513,423 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:48">
-      <c r="C1" s="1" t="n">
+      <c r="B1" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" t="s">
+        <v>4</v>
+      </c>
+      <c r="J1" t="s">
+        <v>5</v>
+      </c>
+      <c r="K1" t="s">
+        <v>5</v>
+      </c>
+      <c r="L1" t="s">
+        <v>6</v>
+      </c>
+      <c r="M1" t="s">
+        <v>6</v>
+      </c>
+      <c r="N1" t="s">
+        <v>7</v>
+      </c>
+      <c r="O1" t="s">
+        <v>7</v>
+      </c>
+      <c r="P1" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>8</v>
+      </c>
+      <c r="R1" t="s">
+        <v>9</v>
+      </c>
+      <c r="S1" t="s">
+        <v>9</v>
+      </c>
+      <c r="T1" t="s">
+        <v>10</v>
+      </c>
+      <c r="U1" t="s">
+        <v>10</v>
+      </c>
+      <c r="V1" t="s">
+        <v>11</v>
+      </c>
+      <c r="W1" t="s">
+        <v>11</v>
+      </c>
+      <c r="X1" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>4</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>4</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>6</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>6</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>8</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>8</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>11</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>11</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>12</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>12</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>13</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>14</v>
+      </c>
+      <c r="AU1" t="s">
         <v>1</v>
       </c>
-      <c r="F1" t="n">
-        <v>1</v>
-      </c>
-      <c r="G1" t="n">
-        <v>1</v>
-      </c>
-      <c r="H1" t="n">
+      <c r="AV1" t="s">
         <v>2</v>
-      </c>
-      <c r="I1" t="n">
-        <v>2</v>
-      </c>
-      <c r="J1" t="n">
-        <v>3</v>
-      </c>
-      <c r="K1" t="n">
-        <v>3</v>
-      </c>
-      <c r="L1" t="n">
-        <v>4</v>
-      </c>
-      <c r="M1" t="n">
-        <v>4</v>
-      </c>
-      <c r="N1" t="n">
-        <v>5</v>
-      </c>
-      <c r="O1" t="n">
-        <v>5</v>
-      </c>
-      <c r="P1" t="n">
-        <v>6</v>
-      </c>
-      <c r="Q1" t="n">
-        <v>6</v>
-      </c>
-      <c r="R1" t="n">
-        <v>7</v>
-      </c>
-      <c r="S1" t="n">
-        <v>7</v>
-      </c>
-      <c r="T1" t="n">
-        <v>8</v>
-      </c>
-      <c r="U1" t="n">
-        <v>8</v>
-      </c>
-      <c r="V1" t="n">
-        <v>9</v>
-      </c>
-      <c r="W1" t="n">
-        <v>9</v>
-      </c>
-      <c r="X1" t="n">
-        <v>10</v>
-      </c>
-      <c r="Y1" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z1" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA1" t="n">
-        <v>2</v>
-      </c>
-      <c r="AB1" t="n">
-        <v>2</v>
-      </c>
-      <c r="AC1" t="n">
-        <v>3</v>
-      </c>
-      <c r="AD1" t="n">
-        <v>3</v>
-      </c>
-      <c r="AE1" t="n">
-        <v>4</v>
-      </c>
-      <c r="AF1" t="n">
-        <v>4</v>
-      </c>
-      <c r="AG1" t="n">
-        <v>5</v>
-      </c>
-      <c r="AH1" t="n">
-        <v>5</v>
-      </c>
-      <c r="AI1" t="n">
-        <v>6</v>
-      </c>
-      <c r="AJ1" t="n">
-        <v>6</v>
-      </c>
-      <c r="AK1" t="n">
-        <v>7</v>
-      </c>
-      <c r="AL1" t="n">
-        <v>7</v>
-      </c>
-      <c r="AM1" t="n">
-        <v>8</v>
-      </c>
-      <c r="AN1" t="n">
-        <v>8</v>
-      </c>
-      <c r="AO1" t="n">
-        <v>9</v>
-      </c>
-      <c r="AP1" t="n">
-        <v>9</v>
-      </c>
-      <c r="AQ1" t="n">
-        <v>10</v>
-      </c>
-      <c r="AR1" t="n">
-        <v>10</v>
-      </c>
-      <c r="AS1" t="s">
-        <v>2</v>
-      </c>
-      <c r="AT1" t="s">
-        <v>3</v>
-      </c>
-      <c r="AU1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AV1" t="s">
-        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:48">
       <c r="B2" s="1" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7345494375146477</v>
+        <v>0.734549437514648</v>
       </c>
       <c r="D2" t="n">
-        <v>0.6393854326504417</v>
+        <v>0.6393854326504413</v>
       </c>
       <c r="E2" t="n">
-        <v>0.779530090204927</v>
+        <v>0.7795300902049271</v>
       </c>
       <c r="F2" t="n">
-        <v>0.7327326597373456</v>
+        <v>0.7327326597373455</v>
       </c>
       <c r="G2" t="n">
         <v>0.6681860484816106</v>
       </c>
       <c r="H2" t="n">
-        <v>0.7780394330630725</v>
+        <v>0.7780394330630727</v>
       </c>
       <c r="I2" t="n">
-        <v>0.6714627076413829</v>
+        <v>0.6714627076413826</v>
       </c>
       <c r="J2" t="n">
         <v>0.7506366904962679</v>
       </c>
       <c r="K2" t="n">
-        <v>0.7161923686949838</v>
+        <v>0.7161923686949832</v>
       </c>
       <c r="L2" t="n">
-        <v>0.7558047557534869</v>
+        <v>0.7558047557534872</v>
       </c>
       <c r="M2" t="n">
-        <v>0.6515614315636551</v>
+        <v>0.6515614315636552</v>
       </c>
       <c r="N2" t="n">
-        <v>0.7392524433581223</v>
+        <v>0.7392524433581225</v>
       </c>
       <c r="O2" t="n">
-        <v>0.6346143324856732</v>
+        <v>0.6346143324856734</v>
       </c>
       <c r="P2" t="n">
-        <v>0.7124072493541393</v>
+        <v>0.712407249354139</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.7060253214384797</v>
+        <v>0.7060253214384798</v>
       </c>
       <c r="R2" t="n">
-        <v>0.6949883346581341</v>
+        <v>0.6949883346581338</v>
       </c>
       <c r="S2" t="n">
-        <v>0.6503553952068176</v>
+        <v>0.6503553952068178</v>
       </c>
       <c r="T2" t="n">
-        <v>0.7015209000900429</v>
+        <v>0.7015209000900428</v>
       </c>
       <c r="U2" t="n">
-        <v>0.6661104944810772</v>
+        <v>0.666110494481077</v>
       </c>
       <c r="V2" t="n">
-        <v>0.7884903656305499</v>
+        <v>0.7884903656305497</v>
       </c>
       <c r="W2" t="n">
-        <v>0.7355158521181053</v>
+        <v>0.735515852118105</v>
       </c>
       <c r="X2" t="n">
-        <v>0.753241411329766</v>
+        <v>0.7532414113297669</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.7534478534754296</v>
+        <v>0.7534478534754301</v>
       </c>
       <c r="Z2" t="n">
-        <v>0.7349190048520585</v>
+        <v>0.7349190048520584</v>
       </c>
       <c r="AA2" t="n">
-        <v>0.6231717035839379</v>
+        <v>0.6231717035839376</v>
       </c>
       <c r="AB2" t="n">
-        <v>0.7498342870546931</v>
+        <v>0.7498342870546928</v>
       </c>
       <c r="AC2" t="n">
-        <v>0.6884394048108037</v>
+        <v>0.6884394048108036</v>
       </c>
       <c r="AD2" t="n">
-        <v>0.7192555086732596</v>
+        <v>0.71925550867326</v>
       </c>
       <c r="AE2" t="n">
-        <v>0.7418727330228144</v>
+        <v>0.7418727330228148</v>
       </c>
       <c r="AF2" t="n">
-        <v>0.7426125574332889</v>
+        <v>0.7426125574332885</v>
       </c>
       <c r="AG2" t="n">
-        <v>0.7691138062270088</v>
+        <v>0.7691138062270082</v>
       </c>
       <c r="AH2" t="n">
         <v>0.7397216157145382</v>
       </c>
       <c r="AI2" t="n">
-        <v>0.7581666404546087</v>
+        <v>0.7581666404546086</v>
       </c>
       <c r="AJ2" t="n">
-        <v>0.6888809652721284</v>
+        <v>0.6888809652721281</v>
       </c>
       <c r="AK2" t="n">
-        <v>0.6906209467590315</v>
+        <v>0.6906209467590323</v>
       </c>
       <c r="AL2" t="n">
-        <v>0.7475215001636218</v>
+        <v>0.7475215001636226</v>
       </c>
       <c r="AM2" t="n">
-        <v>0.7022962092867653</v>
+        <v>0.7022962092867654</v>
       </c>
       <c r="AN2" t="n">
-        <v>0.7067249348472876</v>
+        <v>0.7067249348472867</v>
       </c>
       <c r="AO2" t="n">
-        <v>0.701438093085946</v>
+        <v>0.7014380930859461</v>
       </c>
       <c r="AP2" t="n">
-        <v>0.7696861487466157</v>
+        <v>0.7696861487466158</v>
       </c>
       <c r="AQ2" t="n">
-        <v>0.7019458575597654</v>
+        <v>0.7019458575597655</v>
       </c>
       <c r="AR2" t="n">
-        <v>0.7212440301036994</v>
+        <v>0.7212440301036996</v>
       </c>
       <c r="AS2" t="n">
-        <v>0.7503168067297276</v>
+        <v>0.7503168067297283</v>
       </c>
       <c r="AT2" t="n">
-        <v>0.7746946875025027</v>
+        <v>0.7746946875025025</v>
       </c>
       <c r="AU2" t="n">
-        <v>0.7709973307507272</v>
+        <v>0.7709973307507274</v>
       </c>
       <c r="AV2" t="n">
-        <v>0.7555933965122756</v>
+        <v>0.7555933965122754</v>
       </c>
     </row>
     <row r="3" spans="1:48">
       <c r="B3" s="1" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="C3" t="n">
-        <v>0.6932679859294753</v>
+        <v>0.6932679859294749</v>
       </c>
       <c r="D3" t="n">
-        <v>0.7584666422752016</v>
+        <v>0.7584666422752022</v>
       </c>
       <c r="E3" t="n">
         <v>0.7515026130453217</v>
       </c>
       <c r="F3" t="n">
-        <v>0.6930284195795556</v>
+        <v>0.6930284195795553</v>
       </c>
       <c r="G3" t="n">
         <v>0.7261381918650989</v>
       </c>
       <c r="H3" t="n">
-        <v>0.7283904025076045</v>
+        <v>0.7283904025076047</v>
       </c>
       <c r="I3" t="n">
         <v>0.7177376822688163</v>
       </c>
       <c r="J3" t="n">
-        <v>0.6891116429200541</v>
+        <v>0.6891116429200538</v>
       </c>
       <c r="K3" t="n">
-        <v>0.6810297971595445</v>
+        <v>0.6810297971595449</v>
       </c>
       <c r="L3" t="n">
-        <v>0.7367834534254588</v>
+        <v>0.7367834534254589</v>
       </c>
       <c r="M3" t="n">
-        <v>0.624054061601218</v>
+        <v>0.6240540616012182</v>
       </c>
       <c r="N3" t="n">
-        <v>0.6787125081449633</v>
+        <v>0.6787125081449629</v>
       </c>
       <c r="O3" t="n">
-        <v>0.6787683307116029</v>
+        <v>0.6787683307116034</v>
       </c>
       <c r="P3" t="n">
-        <v>0.6751359233972918</v>
+        <v>0.6751359233972917</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.7178932007462915</v>
+        <v>0.7178932007462914</v>
       </c>
       <c r="R3" t="n">
-        <v>0.7263013309174616</v>
+        <v>0.7263013309174619</v>
       </c>
       <c r="S3" t="n">
         <v>0.7171778081850709</v>
       </c>
       <c r="T3" t="n">
-        <v>0.6950845657322845</v>
+        <v>0.6950845657322847</v>
       </c>
       <c r="U3" t="n">
-        <v>0.7749990381790433</v>
+        <v>0.7749990381790434</v>
       </c>
       <c r="V3" t="n">
-        <v>0.7256945223010125</v>
+        <v>0.7256945223010123</v>
       </c>
       <c r="W3" t="n">
-        <v>0.7793820583521672</v>
+        <v>0.7793820583521671</v>
       </c>
       <c r="X3" t="n">
-        <v>0.730915994763405</v>
+        <v>0.7309159947634056</v>
       </c>
       <c r="Y3" t="n">
-        <v>0.720301782869919</v>
+        <v>0.7203017828699192</v>
       </c>
       <c r="Z3" t="n">
         <v>0.6803342484651727</v>
       </c>
       <c r="AA3" t="n">
-        <v>0.6576630388065332</v>
+        <v>0.6576630388065337</v>
       </c>
       <c r="AB3" t="n">
-        <v>0.726607832917605</v>
+        <v>0.7266078329176053</v>
       </c>
       <c r="AC3" t="n">
-        <v>0.7229663734958892</v>
+        <v>0.7229663734958898</v>
       </c>
       <c r="AD3" t="n">
-        <v>0.7484205508116516</v>
+        <v>0.7484205508116512</v>
       </c>
       <c r="AE3" t="n">
-        <v>0.682453726083542</v>
+        <v>0.6824537260835422</v>
       </c>
       <c r="AF3" t="n">
-        <v>0.7085566122094685</v>
+        <v>0.7085566122094683</v>
       </c>
       <c r="AG3" t="n">
-        <v>0.7222035223420764</v>
+        <v>0.722203522342076</v>
       </c>
       <c r="AH3" t="n">
-        <v>0.7668819438432409</v>
+        <v>0.7668819438432413</v>
       </c>
       <c r="AI3" t="n">
         <v>0.6551862522987103</v>
       </c>
       <c r="AJ3" t="n">
-        <v>0.7144383819301688</v>
+        <v>0.7144383819301687</v>
       </c>
       <c r="AK3" t="n">
-        <v>0.7294863963177789</v>
+        <v>0.7294863963177793</v>
       </c>
       <c r="AL3" t="n">
-        <v>0.7515643312472139</v>
+        <v>0.7515643312472137</v>
       </c>
       <c r="AM3" t="n">
-        <v>0.7219338937582724</v>
+        <v>0.7219338937582722</v>
       </c>
       <c r="AN3" t="n">
-        <v>0.7249957365278582</v>
+        <v>0.7249957365278589</v>
       </c>
       <c r="AO3" t="n">
-        <v>0.7544312446649089</v>
+        <v>0.7544312446649085</v>
       </c>
       <c r="AP3" t="n">
-        <v>0.6389769925974097</v>
+        <v>0.6389769925974096</v>
       </c>
       <c r="AQ3" t="n">
-        <v>0.7577846787525535</v>
+        <v>0.7577846787525528</v>
       </c>
       <c r="AR3" t="n">
-        <v>0.7663074098148408</v>
+        <v>0.766307409814841</v>
       </c>
       <c r="AS3" t="n">
-        <v>0.7083062248212146</v>
+        <v>0.7083062248212147</v>
       </c>
       <c r="AT3" t="n">
         <v>0.738441912666822</v>
@@ -3896,486 +3938,486 @@
         <v>0.7133865502965046</v>
       </c>
       <c r="AV3" t="n">
-        <v>0.7364395869448921</v>
+        <v>0.7364395869448919</v>
       </c>
     </row>
     <row r="4" spans="1:48">
       <c r="B4" s="1" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="C4" t="n">
-        <v>0.6067796238468468</v>
+        <v>0.6067796238468466</v>
       </c>
       <c r="D4" t="n">
-        <v>0.6371008074219101</v>
+        <v>0.6371008074219099</v>
       </c>
       <c r="E4" t="n">
-        <v>0.7671924268540039</v>
+        <v>0.7671924268540034</v>
       </c>
       <c r="F4" t="n">
-        <v>0.7851444920031541</v>
+        <v>0.7851444920031538</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6380061516296596</v>
+        <v>0.6380061516296593</v>
       </c>
       <c r="H4" t="n">
-        <v>0.7452513265255555</v>
+        <v>0.7452513265255554</v>
       </c>
       <c r="I4" t="n">
-        <v>0.7411558085290813</v>
+        <v>0.7411558085290811</v>
       </c>
       <c r="J4" t="n">
-        <v>0.663487362318838</v>
+        <v>0.6634873623188381</v>
       </c>
       <c r="K4" t="n">
-        <v>0.7140390782559337</v>
+        <v>0.7140390782559335</v>
       </c>
       <c r="L4" t="n">
-        <v>0.7390093410239283</v>
+        <v>0.7390093410239285</v>
       </c>
       <c r="M4" t="n">
-        <v>0.7760152804928617</v>
+        <v>0.7760152804928616</v>
       </c>
       <c r="N4" t="n">
-        <v>0.6882146130757976</v>
+        <v>0.6882146130757969</v>
       </c>
       <c r="O4" t="n">
-        <v>0.7423565684490102</v>
+        <v>0.7423565684490103</v>
       </c>
       <c r="P4" t="n">
-        <v>0.7189411830208501</v>
+        <v>0.7189411830208498</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.724984372744168</v>
+        <v>0.7249843727441679</v>
       </c>
       <c r="R4" t="n">
-        <v>0.7553536239567125</v>
+        <v>0.7553536239567127</v>
       </c>
       <c r="S4" t="n">
-        <v>0.7124476687769887</v>
+        <v>0.7124476687769886</v>
       </c>
       <c r="T4" t="n">
-        <v>0.7344494855335153</v>
+        <v>0.7344494855335154</v>
       </c>
       <c r="U4" t="n">
-        <v>0.774126325818839</v>
+        <v>0.7741263258188388</v>
       </c>
       <c r="V4" t="n">
-        <v>0.7468849150341428</v>
+        <v>0.7468849150341423</v>
       </c>
       <c r="W4" t="n">
-        <v>0.7210299380860739</v>
+        <v>0.721029938086074</v>
       </c>
       <c r="X4" t="n">
-        <v>0.7333988326969447</v>
+        <v>0.7333988326969442</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.7490729055302953</v>
+        <v>0.7490729055302957</v>
       </c>
       <c r="Z4" t="n">
-        <v>0.7413176875794104</v>
+        <v>0.7413176875794106</v>
       </c>
       <c r="AA4" t="n">
-        <v>0.7521150140730573</v>
+        <v>0.7521150140730568</v>
       </c>
       <c r="AB4" t="n">
-        <v>0.7682443629719337</v>
+        <v>0.768244362971934</v>
       </c>
       <c r="AC4" t="n">
-        <v>0.663347501616169</v>
+        <v>0.6633475016161693</v>
       </c>
       <c r="AD4" t="n">
-        <v>0.763681175435299</v>
+        <v>0.7636811754352992</v>
       </c>
       <c r="AE4" t="n">
-        <v>0.6348939148338547</v>
+        <v>0.634893914833855</v>
       </c>
       <c r="AF4" t="n">
-        <v>0.7508261062476727</v>
+        <v>0.7508261062476728</v>
       </c>
       <c r="AG4" t="n">
-        <v>0.7316861178584867</v>
+        <v>0.7316861178584866</v>
       </c>
       <c r="AH4" t="n">
-        <v>0.662887181463354</v>
+        <v>0.6628871814633537</v>
       </c>
       <c r="AI4" t="n">
         <v>0.7492902854001412</v>
       </c>
       <c r="AJ4" t="n">
-        <v>0.7541619856211795</v>
+        <v>0.7541619856211794</v>
       </c>
       <c r="AK4" t="n">
-        <v>0.6916553364294962</v>
+        <v>0.6916553364294965</v>
       </c>
       <c r="AL4" t="n">
-        <v>0.7017944184132208</v>
+        <v>0.7017944184132205</v>
       </c>
       <c r="AM4" t="n">
-        <v>0.6138060435722997</v>
+        <v>0.6138060435723</v>
       </c>
       <c r="AN4" t="n">
-        <v>0.7893545275177793</v>
+        <v>0.7893545275177798</v>
       </c>
       <c r="AO4" t="n">
-        <v>0.7104351761036175</v>
+        <v>0.7104351761036173</v>
       </c>
       <c r="AP4" t="n">
-        <v>0.6410030112434664</v>
+        <v>0.6410030112434661</v>
       </c>
       <c r="AQ4" t="n">
-        <v>0.7205987991335535</v>
+        <v>0.7205987991335536</v>
       </c>
       <c r="AR4" t="n">
-        <v>0.7496882056454462</v>
+        <v>0.7496882056454458</v>
       </c>
       <c r="AS4" t="n">
-        <v>0.7197991274566565</v>
+        <v>0.7197991274566561</v>
       </c>
       <c r="AT4" t="n">
-        <v>0.6809774005230645</v>
+        <v>0.680977400523065</v>
       </c>
       <c r="AU4" t="n">
-        <v>0.5886868864359778</v>
+        <v>0.5886868864359782</v>
       </c>
       <c r="AV4" t="n">
-        <v>0.7523489432674244</v>
+        <v>0.7523489432674242</v>
       </c>
     </row>
     <row r="5" spans="1:48">
       <c r="B5" s="1" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7321532483804332</v>
+        <v>0.7321532483804326</v>
       </c>
       <c r="D5" t="n">
-        <v>0.7151489087756464</v>
+        <v>0.7151489087756469</v>
       </c>
       <c r="E5" t="n">
-        <v>0.7157289671639606</v>
+        <v>0.7157289671639607</v>
       </c>
       <c r="F5" t="n">
-        <v>0.7464636945698212</v>
+        <v>0.7464636945698209</v>
       </c>
       <c r="G5" t="n">
-        <v>0.6937118185555563</v>
+        <v>0.6937118185555564</v>
       </c>
       <c r="H5" t="n">
-        <v>0.739426626512535</v>
+        <v>0.7394266265125348</v>
       </c>
       <c r="I5" t="n">
         <v>0.6983947386051081</v>
       </c>
       <c r="J5" t="n">
-        <v>0.7511686184875688</v>
+        <v>0.7511686184875686</v>
       </c>
       <c r="K5" t="n">
-        <v>0.759346797343635</v>
+        <v>0.7593467973436347</v>
       </c>
       <c r="L5" t="n">
-        <v>0.7610824811367689</v>
+        <v>0.7610824811367699</v>
       </c>
       <c r="M5" t="n">
-        <v>0.6355252935157202</v>
+        <v>0.6355252935157204</v>
       </c>
       <c r="N5" t="n">
-        <v>0.738042043344149</v>
+        <v>0.7380420433441488</v>
       </c>
       <c r="O5" t="n">
-        <v>0.716977780171062</v>
+        <v>0.7169777801710616</v>
       </c>
       <c r="P5" t="n">
-        <v>0.7333980383131237</v>
+        <v>0.733398038313124</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.7105373984740239</v>
+        <v>0.7105373984740236</v>
       </c>
       <c r="R5" t="n">
-        <v>0.7373913727680079</v>
+        <v>0.7373913727680087</v>
       </c>
       <c r="S5" t="n">
-        <v>0.679189140457206</v>
+        <v>0.6791891404572058</v>
       </c>
       <c r="T5" t="n">
-        <v>0.7435679660762171</v>
+        <v>0.7435679660762173</v>
       </c>
       <c r="U5" t="n">
-        <v>0.7263605847601167</v>
+        <v>0.7263605847601163</v>
       </c>
       <c r="V5" t="n">
-        <v>0.7656727919473468</v>
+        <v>0.7656727919473463</v>
       </c>
       <c r="W5" t="n">
-        <v>0.7471358709514235</v>
+        <v>0.747135870951423</v>
       </c>
       <c r="X5" t="n">
-        <v>0.7356304047511109</v>
+        <v>0.7356304047511103</v>
       </c>
       <c r="Y5" t="n">
-        <v>0.7638253561436037</v>
+        <v>0.7638253561436047</v>
       </c>
       <c r="Z5" t="n">
-        <v>0.745813345001498</v>
+        <v>0.7458133450014973</v>
       </c>
       <c r="AA5" t="n">
-        <v>0.7684704824094944</v>
+        <v>0.768470482409494</v>
       </c>
       <c r="AB5" t="n">
         <v>0.710270687894318</v>
       </c>
       <c r="AC5" t="n">
-        <v>0.704760471848811</v>
+        <v>0.7047604718488112</v>
       </c>
       <c r="AD5" t="n">
         <v>0.7482655109980789</v>
       </c>
       <c r="AE5" t="n">
-        <v>0.778001948915686</v>
+        <v>0.7780019489156865</v>
       </c>
       <c r="AF5" t="n">
-        <v>0.7655545349123385</v>
+        <v>0.7655545349123383</v>
       </c>
       <c r="AG5" t="n">
-        <v>0.7246121354749731</v>
+        <v>0.7246121354749727</v>
       </c>
       <c r="AH5" t="n">
-        <v>0.7327026797334181</v>
+        <v>0.7327026797334176</v>
       </c>
       <c r="AI5" t="n">
         <v>0.7396007631152629</v>
       </c>
       <c r="AJ5" t="n">
-        <v>0.7343460358669475</v>
+        <v>0.7343460358669479</v>
       </c>
       <c r="AK5" t="n">
-        <v>0.6930859585166811</v>
+        <v>0.6930859585166816</v>
       </c>
       <c r="AL5" t="n">
-        <v>0.7352373556050152</v>
+        <v>0.7352373556050155</v>
       </c>
       <c r="AM5" t="n">
-        <v>0.752937315806396</v>
+        <v>0.7529373158063963</v>
       </c>
       <c r="AN5" t="n">
-        <v>0.7496119092836001</v>
+        <v>0.7496119092836003</v>
       </c>
       <c r="AO5" t="n">
-        <v>0.750158170834928</v>
+        <v>0.7501581708349281</v>
       </c>
       <c r="AP5" t="n">
-        <v>0.7371064873818847</v>
+        <v>0.7371064873818844</v>
       </c>
       <c r="AQ5" t="n">
-        <v>0.7435331257187185</v>
+        <v>0.743533125718718</v>
       </c>
       <c r="AR5" t="n">
-        <v>0.7296399156608402</v>
+        <v>0.7296399156608407</v>
       </c>
       <c r="AS5" t="n">
-        <v>0.7269794602830002</v>
+        <v>0.726979460283</v>
       </c>
       <c r="AT5" t="n">
-        <v>0.6984890902830954</v>
+        <v>0.6984890902830955</v>
       </c>
       <c r="AU5" t="n">
-        <v>0.6572311444086132</v>
+        <v>0.6572311444086133</v>
       </c>
       <c r="AV5" t="n">
-        <v>0.7207651330696464</v>
+        <v>0.7207651330696466</v>
       </c>
     </row>
     <row r="6" spans="1:48">
       <c r="B6" s="1" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6572364873150548</v>
+        <v>0.6572364873150547</v>
       </c>
       <c r="D6" t="n">
-        <v>0.7476356008341115</v>
+        <v>0.7476356008341113</v>
       </c>
       <c r="E6" t="n">
-        <v>0.727781905747847</v>
+        <v>0.7277819057478467</v>
       </c>
       <c r="F6" t="n">
-        <v>0.7609726130963869</v>
+        <v>0.760972613096387</v>
       </c>
       <c r="G6" t="n">
-        <v>0.6903454733896299</v>
+        <v>0.6903454733896296</v>
       </c>
       <c r="H6" t="n">
-        <v>0.7470017778289432</v>
+        <v>0.7470017778289437</v>
       </c>
       <c r="I6" t="n">
-        <v>0.7710385423875632</v>
+        <v>0.7710385423875633</v>
       </c>
       <c r="J6" t="n">
-        <v>0.7292170005107063</v>
+        <v>0.7292170005107069</v>
       </c>
       <c r="K6" t="n">
-        <v>0.7207458896160241</v>
+        <v>0.7207458896160243</v>
       </c>
       <c r="L6" t="n">
-        <v>0.7574450610579117</v>
+        <v>0.7574450610579119</v>
       </c>
       <c r="M6" t="n">
-        <v>0.743733597683396</v>
+        <v>0.7437335976833953</v>
       </c>
       <c r="N6" t="n">
-        <v>0.7072447068188799</v>
+        <v>0.7072447068188797</v>
       </c>
       <c r="O6" t="n">
-        <v>0.6947217843317438</v>
+        <v>0.694721784331744</v>
       </c>
       <c r="P6" t="n">
-        <v>0.739896054588627</v>
+        <v>0.7398960545886272</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.6912000701095995</v>
+        <v>0.6912000701095993</v>
       </c>
       <c r="R6" t="n">
-        <v>0.7309504216110243</v>
+        <v>0.7309504216110242</v>
       </c>
       <c r="S6" t="n">
-        <v>0.7483278498750546</v>
+        <v>0.7483278498750551</v>
       </c>
       <c r="T6" t="n">
-        <v>0.7398813254781498</v>
+        <v>0.7398813254781497</v>
       </c>
       <c r="U6" t="n">
-        <v>0.7356450806202997</v>
+        <v>0.7356450806203004</v>
       </c>
       <c r="V6" t="n">
-        <v>0.6978522147914078</v>
+        <v>0.6978522147914071</v>
       </c>
       <c r="W6" t="n">
         <v>0.6881719299673059</v>
       </c>
       <c r="X6" t="n">
-        <v>0.7350261157375533</v>
+        <v>0.7350261157375535</v>
       </c>
       <c r="Y6" t="n">
-        <v>0.7350768346590327</v>
+        <v>0.7350768346590333</v>
       </c>
       <c r="Z6" t="n">
-        <v>0.7297206445063729</v>
+        <v>0.7297206445063721</v>
       </c>
       <c r="AA6" t="n">
-        <v>0.7275272846307899</v>
+        <v>0.7275272846307892</v>
       </c>
       <c r="AB6" t="n">
-        <v>0.7165973867936229</v>
+        <v>0.7165973867936226</v>
       </c>
       <c r="AC6" t="n">
-        <v>0.6931826313278315</v>
+        <v>0.6931826313278314</v>
       </c>
       <c r="AD6" t="n">
-        <v>0.7265318892846581</v>
+        <v>0.7265318892846582</v>
       </c>
       <c r="AE6" t="n">
-        <v>0.7821754754541548</v>
+        <v>0.7821754754541549</v>
       </c>
       <c r="AF6" t="n">
-        <v>0.781307036740532</v>
+        <v>0.7813070367405319</v>
       </c>
       <c r="AG6" t="n">
-        <v>0.7276326991013341</v>
+        <v>0.7276326991013337</v>
       </c>
       <c r="AH6" t="n">
-        <v>0.7599759199572977</v>
+        <v>0.759975919957298</v>
       </c>
       <c r="AI6" t="n">
-        <v>0.7637331953571516</v>
+        <v>0.7637331953571517</v>
       </c>
       <c r="AJ6" t="n">
-        <v>0.755608713455847</v>
+        <v>0.7556087134558465</v>
       </c>
       <c r="AK6" t="n">
-        <v>0.7774231740245836</v>
+        <v>0.7774231740245847</v>
       </c>
       <c r="AL6" t="n">
-        <v>0.7414527734801782</v>
+        <v>0.7414527734801779</v>
       </c>
       <c r="AM6" t="n">
-        <v>0.76987248577023</v>
+        <v>0.7698724857702297</v>
       </c>
       <c r="AN6" t="n">
-        <v>0.7603255552290408</v>
+        <v>0.7603255552290407</v>
       </c>
       <c r="AO6" t="n">
-        <v>0.7411279962912448</v>
+        <v>0.7411279962912447</v>
       </c>
       <c r="AP6" t="n">
-        <v>0.7510449721649672</v>
+        <v>0.7510449721649669</v>
       </c>
       <c r="AQ6" t="n">
         <v>0.7428872336912103</v>
       </c>
       <c r="AR6" t="n">
-        <v>0.7569036685462147</v>
+        <v>0.756903668546215</v>
       </c>
       <c r="AS6" t="n">
-        <v>0.7295350189649246</v>
+        <v>0.7295350189649252</v>
       </c>
       <c r="AT6" t="n">
-        <v>0.7426577137792101</v>
+        <v>0.7426577137792096</v>
       </c>
       <c r="AU6" t="n">
-        <v>0.697611845258722</v>
+        <v>0.6976118452587219</v>
       </c>
       <c r="AV6" t="n">
-        <v>0.742550704751801</v>
+        <v>0.7425507047518012</v>
       </c>
     </row>
     <row r="7" spans="1:48">
       <c r="B7" s="1" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7108401530287357</v>
+        <v>0.7108401530287355</v>
       </c>
       <c r="D7" t="n">
-        <v>0.6663284211331105</v>
+        <v>0.6663284211331104</v>
       </c>
       <c r="E7" t="n">
-        <v>0.7658234143086717</v>
+        <v>0.7658234143086715</v>
       </c>
       <c r="F7" t="n">
-        <v>0.7679037314854177</v>
+        <v>0.7679037314854176</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6427234744082571</v>
+        <v>0.6427234744082564</v>
       </c>
       <c r="H7" t="n">
         <v>0.7647805015525497</v>
       </c>
       <c r="I7" t="n">
-        <v>0.6028305234036586</v>
+        <v>0.6028305234036591</v>
       </c>
       <c r="J7" t="n">
-        <v>0.7029228104570588</v>
+        <v>0.7029228104570587</v>
       </c>
       <c r="K7" t="n">
-        <v>0.7117160564485414</v>
+        <v>0.711716056448541</v>
       </c>
       <c r="L7" t="n">
-        <v>0.6561048178769836</v>
+        <v>0.6561048178769839</v>
       </c>
       <c r="M7" t="n">
-        <v>0.6719307270528829</v>
+        <v>0.6719307270528823</v>
       </c>
       <c r="N7" t="n">
-        <v>0.7518360708354717</v>
+        <v>0.7518360708354713</v>
       </c>
       <c r="O7" t="n">
-        <v>0.6020182369161458</v>
+        <v>0.6020182369161455</v>
       </c>
       <c r="P7" t="n">
-        <v>0.7601287685899992</v>
+        <v>0.7601287685899998</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.6137956487686527</v>
+        <v>0.6137956487686526</v>
       </c>
       <c r="R7" t="n">
         <v>0.700717256046388</v>
@@ -4384,88 +4426,88 @@
         <v>0.610361659781163</v>
       </c>
       <c r="T7" t="n">
-        <v>0.7307419386301759</v>
+        <v>0.730741938630176</v>
       </c>
       <c r="U7" t="n">
-        <v>0.7147837698302789</v>
+        <v>0.7147837698302787</v>
       </c>
       <c r="V7" t="n">
-        <v>0.7257239912465016</v>
+        <v>0.7257239912465006</v>
       </c>
       <c r="W7" t="n">
         <v>0.6778040278299179</v>
       </c>
       <c r="X7" t="n">
-        <v>0.7696858465569183</v>
+        <v>0.7696858465569179</v>
       </c>
       <c r="Y7" t="n">
-        <v>0.6788511312906446</v>
+        <v>0.6788511312906457</v>
       </c>
       <c r="Z7" t="n">
-        <v>0.7251069131134483</v>
+        <v>0.7251069131134479</v>
       </c>
       <c r="AA7" t="n">
-        <v>0.7222121211289863</v>
+        <v>0.7222121211289867</v>
       </c>
       <c r="AB7" t="n">
-        <v>0.7172026545304104</v>
+        <v>0.7172026545304105</v>
       </c>
       <c r="AC7" t="n">
         <v>0.7342847091380255</v>
       </c>
       <c r="AD7" t="n">
-        <v>0.6803147658719668</v>
+        <v>0.6803147658719666</v>
       </c>
       <c r="AE7" t="n">
-        <v>0.6950751303997786</v>
+        <v>0.6950751303997783</v>
       </c>
       <c r="AF7" t="n">
-        <v>0.754570194838872</v>
+        <v>0.7545701948388713</v>
       </c>
       <c r="AG7" t="n">
-        <v>0.6296060170781402</v>
+        <v>0.6296060170781399</v>
       </c>
       <c r="AH7" t="n">
-        <v>0.7236735699802759</v>
+        <v>0.7236735699802768</v>
       </c>
       <c r="AI7" t="n">
-        <v>0.7496593647172113</v>
+        <v>0.7496593647172117</v>
       </c>
       <c r="AJ7" t="n">
-        <v>0.7321078939888789</v>
+        <v>0.7321078939888785</v>
       </c>
       <c r="AK7" t="n">
-        <v>0.6390425851906183</v>
+        <v>0.6390425851906186</v>
       </c>
       <c r="AL7" t="n">
-        <v>0.7542517516872158</v>
+        <v>0.754251751687216</v>
       </c>
       <c r="AM7" t="n">
-        <v>0.7046293584163456</v>
+        <v>0.7046293584163459</v>
       </c>
       <c r="AN7" t="n">
-        <v>0.732788165907306</v>
+        <v>0.7327881659073059</v>
       </c>
       <c r="AO7" t="n">
-        <v>0.6853989789215419</v>
+        <v>0.685398978921542</v>
       </c>
       <c r="AP7" t="n">
-        <v>0.6350266769352588</v>
+        <v>0.6350266769352593</v>
       </c>
       <c r="AQ7" t="n">
-        <v>0.7669831242585717</v>
+        <v>0.7669831242585725</v>
       </c>
       <c r="AR7" t="n">
-        <v>0.7254101130491205</v>
+        <v>0.7254101130491204</v>
       </c>
       <c r="AS7" t="n">
-        <v>0.7674428058778224</v>
+        <v>0.7674428058778222</v>
       </c>
       <c r="AT7" t="n">
-        <v>0.6522833779157315</v>
+        <v>0.6522833779157317</v>
       </c>
       <c r="AU7" t="n">
-        <v>0.6799102720948308</v>
+        <v>0.6799102720948311</v>
       </c>
       <c r="AV7" t="n">
         <v>0.746645109236251</v>
@@ -4473,210 +4515,210 @@
     </row>
     <row r="8" spans="1:48">
       <c r="B8" s="1" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="C8" t="n">
-        <v>0.5771662952037061</v>
+        <v>0.5771662952037062</v>
       </c>
       <c r="D8" t="n">
         <v>0.7108605992214188</v>
       </c>
       <c r="E8" t="n">
-        <v>0.7656297847362525</v>
+        <v>0.7656297847362512</v>
       </c>
       <c r="F8" t="n">
-        <v>0.6390919938550415</v>
+        <v>0.6390919938550412</v>
       </c>
       <c r="G8" t="n">
         <v>0.6503681071937423</v>
       </c>
       <c r="H8" t="n">
-        <v>0.7157894486825358</v>
+        <v>0.7157894486825359</v>
       </c>
       <c r="I8" t="n">
-        <v>0.6808351179166179</v>
+        <v>0.6808351179166177</v>
       </c>
       <c r="J8" t="n">
-        <v>0.6102991666120084</v>
+        <v>0.6102991666120086</v>
       </c>
       <c r="K8" t="n">
-        <v>0.691668084763937</v>
+        <v>0.6916680847639373</v>
       </c>
       <c r="L8" t="n">
-        <v>0.6306217231745711</v>
+        <v>0.6306217231745714</v>
       </c>
       <c r="M8" t="n">
-        <v>0.6533506471773233</v>
+        <v>0.6533506471773235</v>
       </c>
       <c r="N8" t="n">
-        <v>0.617791319779991</v>
+        <v>0.6177913197799908</v>
       </c>
       <c r="O8" t="n">
-        <v>0.6366230463051757</v>
+        <v>0.6366230463051753</v>
       </c>
       <c r="P8" t="n">
         <v>0.7034998754906786</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.7013471268118412</v>
+        <v>0.7013471268118411</v>
       </c>
       <c r="R8" t="n">
-        <v>0.7145404826069378</v>
+        <v>0.7145404826069379</v>
       </c>
       <c r="S8" t="n">
-        <v>0.6729861543013073</v>
+        <v>0.6729861543013076</v>
       </c>
       <c r="T8" t="n">
-        <v>0.7045403646443912</v>
+        <v>0.7045403646443907</v>
       </c>
       <c r="U8" t="n">
         <v>0.6172284690683181</v>
       </c>
       <c r="V8" t="n">
-        <v>0.6990419583246557</v>
+        <v>0.6990419583246558</v>
       </c>
       <c r="W8" t="n">
-        <v>0.6977785040902174</v>
+        <v>0.6977785040902177</v>
       </c>
       <c r="X8" t="n">
-        <v>0.7081758104801066</v>
+        <v>0.7081758104801069</v>
       </c>
       <c r="Y8" t="n">
-        <v>0.6402373877623073</v>
+        <v>0.6402373877623072</v>
       </c>
     </row>
     <row r="9" spans="1:48">
       <c r="B9" s="1" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="C9" t="n">
-        <v>0.7489735819728066</v>
+        <v>0.7489735819728071</v>
       </c>
       <c r="D9" t="n">
-        <v>0.7239435718351235</v>
+        <v>0.7239435718351229</v>
       </c>
       <c r="E9" t="n">
         <v>0.771452165250071</v>
       </c>
       <c r="F9" t="n">
-        <v>0.7639908948272177</v>
+        <v>0.763990894827218</v>
       </c>
       <c r="G9" t="n">
         <v>0.747741420976986</v>
       </c>
       <c r="H9" t="n">
-        <v>0.7337216305081804</v>
+        <v>0.7337216305081806</v>
       </c>
       <c r="I9" t="n">
-        <v>0.7342892510322873</v>
+        <v>0.7342892510322868</v>
       </c>
       <c r="J9" t="n">
-        <v>0.7116291383468977</v>
+        <v>0.7116291383468969</v>
       </c>
       <c r="K9" t="n">
-        <v>0.7075168897467171</v>
+        <v>0.7075168897467172</v>
       </c>
       <c r="L9" t="n">
-        <v>0.7095279323465193</v>
+        <v>0.7095279323465191</v>
       </c>
       <c r="M9" t="n">
-        <v>0.6726109274107313</v>
+        <v>0.6726109274107314</v>
       </c>
       <c r="N9" t="n">
-        <v>0.7381103039066624</v>
+        <v>0.7381103039066623</v>
       </c>
       <c r="O9" t="n">
-        <v>0.7483753432614203</v>
+        <v>0.7483753432614209</v>
       </c>
       <c r="P9" t="n">
-        <v>0.7454282755579089</v>
+        <v>0.745428275557909</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.7690123672417356</v>
+        <v>0.7690123672417352</v>
       </c>
       <c r="R9" t="n">
-        <v>0.7477120682189385</v>
+        <v>0.7477120682189383</v>
       </c>
       <c r="S9" t="n">
         <v>0.7033205121425532</v>
       </c>
       <c r="T9" t="n">
-        <v>0.756843959854863</v>
+        <v>0.7568439598548631</v>
       </c>
       <c r="U9" t="n">
-        <v>0.7480655370082213</v>
+        <v>0.7480655370082212</v>
       </c>
       <c r="V9" t="n">
-        <v>0.7484192087613869</v>
+        <v>0.7484192087613871</v>
       </c>
       <c r="W9" t="n">
-        <v>0.678745106975822</v>
+        <v>0.6787451069758221</v>
       </c>
       <c r="X9" t="n">
-        <v>0.6929722426004576</v>
+        <v>0.6929722426004578</v>
       </c>
       <c r="Y9" t="n">
-        <v>0.7517007923364651</v>
+        <v>0.7517007923364654</v>
       </c>
       <c r="Z9" t="n">
-        <v>0.7699862394149698</v>
+        <v>0.7699862394149695</v>
       </c>
       <c r="AA9" t="n">
-        <v>0.6828728343953587</v>
+        <v>0.6828728343953583</v>
       </c>
       <c r="AB9" t="n">
-        <v>0.7684356652130734</v>
+        <v>0.7684356652130735</v>
       </c>
       <c r="AC9" t="n">
-        <v>0.7575378434093792</v>
+        <v>0.7575378434093798</v>
       </c>
       <c r="AD9" t="n">
-        <v>0.7307690985872681</v>
+        <v>0.7307690985872678</v>
       </c>
       <c r="AE9" t="n">
-        <v>0.7354936832913028</v>
+        <v>0.735493683291303</v>
       </c>
       <c r="AF9" t="n">
-        <v>0.7513612497938245</v>
+        <v>0.7513612497938242</v>
       </c>
       <c r="AG9" t="n">
-        <v>0.7205666883637045</v>
+        <v>0.720566688363704</v>
       </c>
       <c r="AH9" t="n">
-        <v>0.7711100254670435</v>
+        <v>0.7711100254670433</v>
       </c>
       <c r="AI9" t="n">
-        <v>0.7418982571754442</v>
+        <v>0.7418982571754444</v>
       </c>
       <c r="AJ9" t="n">
-        <v>0.7612488350406922</v>
+        <v>0.7612488350406929</v>
       </c>
       <c r="AK9" t="n">
-        <v>0.7569571558025154</v>
+        <v>0.7569571558025153</v>
       </c>
       <c r="AL9" t="n">
-        <v>0.7825903171373979</v>
+        <v>0.7825903171373978</v>
       </c>
       <c r="AM9" t="n">
-        <v>0.7353496279342514</v>
+        <v>0.7353496279342513</v>
       </c>
       <c r="AN9" t="n">
-        <v>0.7891934702203078</v>
+        <v>0.7891934702203075</v>
       </c>
       <c r="AO9" t="n">
-        <v>0.7225974870154027</v>
+        <v>0.7225974870154026</v>
       </c>
       <c r="AP9" t="n">
         <v>0.754551720597649</v>
       </c>
       <c r="AQ9" t="n">
-        <v>0.786327016480921</v>
+        <v>0.7863270164809212</v>
       </c>
       <c r="AR9" t="n">
-        <v>0.7887843030681714</v>
+        <v>0.788784303068171</v>
       </c>
       <c r="AS9" t="n">
-        <v>0.7638069026403114</v>
+        <v>0.7638069026403123</v>
       </c>
       <c r="AT9" t="n">
         <v>0.777677803920517</v>
@@ -4690,121 +4732,121 @@
     </row>
     <row r="10" spans="1:48">
       <c r="B10" s="1" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="C10" t="n">
-        <v>0.6273819242655726</v>
+        <v>0.6273819242655723</v>
       </c>
       <c r="D10" t="n">
-        <v>0.6009685319362462</v>
+        <v>0.6009685319362459</v>
       </c>
       <c r="E10" t="n">
-        <v>0.802562470637099</v>
+        <v>0.8025624706370993</v>
       </c>
       <c r="F10" t="n">
-        <v>0.7680067170397473</v>
+        <v>0.768006717039747</v>
       </c>
       <c r="G10" t="n">
         <v>0.6547218016375724</v>
       </c>
       <c r="H10" t="n">
-        <v>0.6953674228235598</v>
+        <v>0.6953674228235599</v>
       </c>
       <c r="I10" t="n">
-        <v>0.7063300621904879</v>
+        <v>0.7063300621904874</v>
       </c>
       <c r="J10" t="n">
-        <v>0.7027934071540601</v>
+        <v>0.7027934071540604</v>
       </c>
       <c r="K10" t="n">
-        <v>0.7213389880470231</v>
+        <v>0.7213389880470232</v>
       </c>
       <c r="L10" t="n">
-        <v>0.7014886661981141</v>
+        <v>0.7014886661981139</v>
       </c>
       <c r="M10" t="n">
-        <v>0.681077084637013</v>
+        <v>0.6810770846370132</v>
       </c>
       <c r="N10" t="n">
-        <v>0.7734623600905088</v>
+        <v>0.7734623600905091</v>
       </c>
       <c r="O10" t="n">
-        <v>0.6915314117239442</v>
+        <v>0.6915314117239441</v>
       </c>
       <c r="P10" t="n">
         <v>0.7114406149384702</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.6872812464523852</v>
+        <v>0.6872812464523855</v>
       </c>
       <c r="R10" t="n">
-        <v>0.7302135091481043</v>
+        <v>0.7302135091481047</v>
       </c>
       <c r="S10" t="n">
         <v>0.7511064074997067</v>
       </c>
       <c r="T10" t="n">
-        <v>0.7276118883390176</v>
+        <v>0.7276118883390181</v>
       </c>
       <c r="U10" t="n">
         <v>0.6982731604672503</v>
       </c>
       <c r="V10" t="n">
-        <v>0.7706764739125078</v>
+        <v>0.7706764739125082</v>
       </c>
       <c r="W10" t="n">
-        <v>0.6445343233563301</v>
+        <v>0.6445343233563295</v>
       </c>
       <c r="X10" t="n">
-        <v>0.7853622795867627</v>
+        <v>0.7853622795867619</v>
       </c>
       <c r="Y10" t="n">
         <v>0.7603857398911422</v>
       </c>
       <c r="Z10" t="n">
-        <v>0.711475205683104</v>
+        <v>0.7114752056831039</v>
       </c>
       <c r="AA10" t="n">
-        <v>0.6641384011820827</v>
+        <v>0.6641384011820831</v>
       </c>
       <c r="AB10" t="n">
-        <v>0.6885739050297087</v>
+        <v>0.6885739050297091</v>
       </c>
       <c r="AC10" t="n">
-        <v>0.692812928172346</v>
+        <v>0.6928129281723457</v>
       </c>
       <c r="AD10" t="n">
         <v>0.6715793699997167</v>
       </c>
       <c r="AE10" t="n">
-        <v>0.7477243455132708</v>
+        <v>0.7477243455132706</v>
       </c>
       <c r="AF10" t="n">
-        <v>0.7283597362314844</v>
+        <v>0.7283597362314843</v>
       </c>
       <c r="AG10" t="n">
-        <v>0.7121535602594337</v>
+        <v>0.7121535602594339</v>
       </c>
       <c r="AH10" t="n">
-        <v>0.7398954309543833</v>
+        <v>0.7398954309543836</v>
       </c>
       <c r="AI10" t="n">
-        <v>0.694688022668523</v>
+        <v>0.6946880226685231</v>
       </c>
       <c r="AJ10" t="n">
-        <v>0.716322669601997</v>
+        <v>0.7163226696019966</v>
       </c>
       <c r="AK10" t="n">
-        <v>0.7034708117712196</v>
+        <v>0.7034708117712204</v>
       </c>
       <c r="AL10" t="n">
-        <v>0.7043116269060945</v>
+        <v>0.7043116269060946</v>
       </c>
       <c r="AM10" t="n">
-        <v>0.7188665223405138</v>
+        <v>0.7188665223405145</v>
       </c>
       <c r="AN10" t="n">
-        <v>0.6602734484853238</v>
+        <v>0.6602734484853235</v>
       </c>
       <c r="AO10" t="n">
         <v>0.6670961472425898</v>
@@ -4819,10 +4861,10 @@
         <v>0.76396724156108</v>
       </c>
       <c r="AS10" t="n">
-        <v>0.763213848415587</v>
+        <v>0.7632138484155866</v>
       </c>
       <c r="AT10" t="n">
-        <v>0.6115289316857589</v>
+        <v>0.6115289316857587</v>
       </c>
       <c r="AU10" t="n">
         <v>0.6843890256540003</v>
@@ -4833,25 +4875,25 @@
     </row>
     <row r="11" spans="1:48">
       <c r="B11" s="1" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="C11" t="n">
-        <v>0.6124866412085767</v>
+        <v>0.6124866412085763</v>
       </c>
       <c r="D11" t="n">
-        <v>0.6503705986731075</v>
+        <v>0.6503705986731074</v>
       </c>
       <c r="E11" t="n">
         <v>0.788724359037385</v>
       </c>
       <c r="F11" t="n">
-        <v>0.7565533340773881</v>
+        <v>0.7565533340773887</v>
       </c>
       <c r="G11" t="n">
-        <v>0.6509677370820174</v>
+        <v>0.6509677370820172</v>
       </c>
       <c r="H11" t="n">
-        <v>0.7181956985630799</v>
+        <v>0.7181956985630803</v>
       </c>
       <c r="I11" t="n">
         <v>0.6057281292541989</v>
@@ -4860,112 +4902,112 @@
         <v>0.5593891741163469</v>
       </c>
       <c r="K11" t="n">
-        <v>0.5999173284450144</v>
+        <v>0.5999173284450146</v>
       </c>
       <c r="L11" t="n">
-        <v>0.6215042315125967</v>
+        <v>0.6215042315125966</v>
       </c>
       <c r="M11" t="n">
         <v>0.6265504507785968</v>
       </c>
       <c r="N11" t="n">
-        <v>0.7227181874060549</v>
+        <v>0.7227181874060545</v>
       </c>
       <c r="O11" t="n">
-        <v>0.7312846331548269</v>
+        <v>0.7312846331548273</v>
       </c>
       <c r="P11" t="n">
-        <v>0.6571231147506988</v>
+        <v>0.657123114750699</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.6848992780099968</v>
+        <v>0.6848992780099964</v>
       </c>
       <c r="R11" t="n">
-        <v>0.6765553936748253</v>
+        <v>0.6765553936748255</v>
       </c>
       <c r="S11" t="n">
-        <v>0.6503630687645414</v>
+        <v>0.6503630687645413</v>
       </c>
       <c r="T11" t="n">
-        <v>0.6778203254291717</v>
+        <v>0.6778203254291715</v>
       </c>
       <c r="U11" t="n">
-        <v>0.6331317482803466</v>
+        <v>0.6331317482803465</v>
       </c>
       <c r="V11" t="n">
-        <v>0.7295637277189386</v>
+        <v>0.7295637277189392</v>
       </c>
       <c r="W11" t="n">
         <v>0.6626936522414042</v>
       </c>
       <c r="X11" t="n">
-        <v>0.7283863950784977</v>
+        <v>0.7283863950784978</v>
       </c>
       <c r="Y11" t="n">
-        <v>0.7266031765955745</v>
+        <v>0.7266031765955749</v>
       </c>
       <c r="Z11" t="n">
-        <v>0.584869841171636</v>
+        <v>0.5848698411716358</v>
       </c>
       <c r="AA11" t="n">
-        <v>0.746809851980454</v>
+        <v>0.7468098519804538</v>
       </c>
       <c r="AB11" t="n">
-        <v>0.6866652184340888</v>
+        <v>0.6866652184340889</v>
       </c>
       <c r="AC11" t="n">
-        <v>0.7424372534815011</v>
+        <v>0.7424372534815012</v>
       </c>
       <c r="AD11" t="n">
-        <v>0.6719837618039157</v>
+        <v>0.6719837618039161</v>
       </c>
       <c r="AE11" t="n">
-        <v>0.7304453164108871</v>
+        <v>0.7304453164108876</v>
       </c>
       <c r="AF11" t="n">
-        <v>0.7583342885005875</v>
+        <v>0.7583342885005869</v>
       </c>
       <c r="AG11" t="n">
-        <v>0.7265784901784171</v>
+        <v>0.7265784901784166</v>
       </c>
       <c r="AH11" t="n">
-        <v>0.6974223596200937</v>
+        <v>0.6974223596200936</v>
       </c>
       <c r="AI11" t="n">
-        <v>0.7300030597583205</v>
+        <v>0.7300030597583202</v>
       </c>
       <c r="AJ11" t="n">
-        <v>0.7396813458665091</v>
+        <v>0.7396813458665087</v>
       </c>
       <c r="AK11" t="n">
-        <v>0.771762461337453</v>
+        <v>0.7717624613374534</v>
       </c>
       <c r="AL11" t="n">
         <v>0.6713583030633893</v>
       </c>
       <c r="AM11" t="n">
-        <v>0.7784258760529105</v>
+        <v>0.7784258760529104</v>
       </c>
       <c r="AN11" t="n">
         <v>0.7317779468677696</v>
       </c>
       <c r="AO11" t="n">
-        <v>0.6731667418003242</v>
+        <v>0.6731667418003244</v>
       </c>
       <c r="AP11" t="n">
         <v>0.74004311511651</v>
       </c>
       <c r="AQ11" t="n">
-        <v>0.7226386742379747</v>
+        <v>0.7226386742379751</v>
       </c>
       <c r="AR11" t="n">
-        <v>0.7079403329397098</v>
+        <v>0.7079403329397096</v>
       </c>
       <c r="AS11" t="n">
-        <v>0.7566221143947801</v>
+        <v>0.75662211439478</v>
       </c>
       <c r="AT11" t="n">
-        <v>0.7196196377757023</v>
+        <v>0.7196196377757018</v>
       </c>
       <c r="AU11" t="n">
         <v>0.7026944060757472</v>
